--- a/doc/04_画面設計書_今日はどっち派？.xlsx
+++ b/doc/04_画面設計書_今日はどっち派？.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91101A8-1D12-41AA-897C-74183DA217F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A52F47-9CA0-4A4C-BD1C-F26F9DD5EE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{744CE9C5-F14E-4513-A325-F5D24C8B34F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{744CE9C5-F14E-4513-A325-F5D24C8B34F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -322,8 +322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="4200524"/>
-          <a:ext cx="2628900" cy="3848101"/>
+          <a:off x="7092674" y="4141856"/>
+          <a:ext cx="2646569" cy="3792883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -448,8 +448,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10229850" y="4314824"/>
-          <a:ext cx="2628900" cy="3848101"/>
+          <a:off x="10221686" y="4314824"/>
+          <a:ext cx="2626567" cy="3848101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -574,8 +574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10296525" y="257174"/>
-          <a:ext cx="2628900" cy="3848101"/>
+          <a:off x="10315263" y="257174"/>
+          <a:ext cx="2632647" cy="3848101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,8 +700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16202025" y="152399"/>
-          <a:ext cx="2628900" cy="3848101"/>
+          <a:off x="16361352" y="152399"/>
+          <a:ext cx="2656609" cy="3917374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -889,8 +889,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16306800" y="8353424"/>
-          <a:ext cx="2628900" cy="3848101"/>
+          <a:off x="16233775" y="8353424"/>
+          <a:ext cx="2616200" cy="3848101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1122,15 +1122,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>40480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1145,8 +1145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1133475" y="2705099"/>
-          <a:ext cx="1552575" cy="276225"/>
+          <a:off x="1090613" y="3098005"/>
+          <a:ext cx="1562100" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4134,15 +4134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>122107</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>59648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>598357</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>212048</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4157,8 +4157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11087100" y="1066800"/>
-          <a:ext cx="1162050" cy="866775"/>
+          <a:off x="11114894" y="1012148"/>
+          <a:ext cx="1163299" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4210,13 +4210,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>1250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>115550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4231,8 +4231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11125200" y="2409825"/>
-          <a:ext cx="1162050" cy="352425"/>
+          <a:off x="11145187" y="2382500"/>
+          <a:ext cx="1163299" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4274,16 +4274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>593587</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>82825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>317502</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>72886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4298,8 +4298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7962900" y="4829175"/>
-          <a:ext cx="1143000" cy="285750"/>
+          <a:off x="8876196" y="4776303"/>
+          <a:ext cx="414132" cy="224735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4341,14 +4341,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
@@ -4365,8 +4365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439025" y="923925"/>
-          <a:ext cx="1676400" cy="228600"/>
+          <a:off x="8779565" y="966304"/>
+          <a:ext cx="393285" cy="172417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4411,13 +4411,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58555</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4432,8 +4432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11096625" y="2895600"/>
-          <a:ext cx="1162050" cy="1000125"/>
+          <a:off x="11116612" y="2895601"/>
+          <a:ext cx="1163299" cy="734829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5245,15 +5245,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5268,8 +5268,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16649700" y="5267324"/>
-          <a:ext cx="1943100" cy="352425"/>
+          <a:off x="16755718" y="5118653"/>
+          <a:ext cx="1380435" cy="421722"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7976,13 +7976,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>83070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>149745</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7997,8 +7997,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10725150" y="2019299"/>
-          <a:ext cx="1771650" cy="304800"/>
+          <a:off x="10743888" y="1988070"/>
+          <a:ext cx="1775397" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8579,15 +8579,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>647211</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>116252</xdr:rowOff>
+      <xdr:colOff>659118</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>223409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>310416</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>207594</xdr:rowOff>
+      <xdr:colOff>322323</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8602,8 +8602,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1331057" y="3291252"/>
-          <a:ext cx="1030897" cy="335573"/>
+          <a:off x="1349681" y="2604659"/>
+          <a:ext cx="1044330" cy="329467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10267,8 +10267,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13239750" y="8334375"/>
-          <a:ext cx="2628900" cy="5743575"/>
+          <a:off x="13239750" y="8445500"/>
+          <a:ext cx="2628900" cy="5819775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10770,16 +10770,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10794,8 +10794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14687550" y="12706350"/>
-          <a:ext cx="809625" cy="333376"/>
+          <a:off x="14116050" y="12773025"/>
+          <a:ext cx="809625" cy="336551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10838,15 +10838,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>146051</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10861,12 +10861,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13763625" y="12706350"/>
-          <a:ext cx="809625" cy="333376"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="13881100" y="13344525"/>
+          <a:ext cx="1352551" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -10894,12 +10895,2407 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>やめる</a:t>
+            <a:t>マイページに戻る</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145791</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>398495</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>150651</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BF3FB0-82BD-0BF3-8F80-8ECC9032B1F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11109260" y="7072312"/>
+          <a:ext cx="937921" cy="222089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>502684</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>197080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241138</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>193177</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171828A2-5D15-E6FF-A164-086063D6C266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11388398" y="3871009"/>
+          <a:ext cx="418811" cy="241025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>投稿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>163659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="正方形/長方形 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B625E9-A8D9-481B-B5C0-948109155CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13352318" y="14668500"/>
+          <a:ext cx="2656609" cy="3921704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>534266</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>116032</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="テキスト ボックス 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84951016-8AC0-4DA5-A4EF-BC6D6E2A5599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13629409" y="14962909"/>
+          <a:ext cx="2144857" cy="427759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>掲示板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>607002</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="図 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B67CBBF-C044-4745-95F4-AC304D8CFCB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13473545" y="14807045"/>
+          <a:ext cx="295275" cy="254536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>474518</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="正方形/長方形 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C32C76-239C-4B9F-BD58-78B833F9A54C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13750636" y="15811500"/>
+          <a:ext cx="1963882" cy="356755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>34635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>200890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="正方形/長方形 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D064F4-A392-48F9-8CBC-8463EA208334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13733317" y="16279090"/>
+          <a:ext cx="1963882" cy="1136073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿内容</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>516947</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>237258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="テキスト ボックス 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC56EDE-9D39-4338-9BFE-A1F441A9DCAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13612091" y="15326590"/>
+          <a:ext cx="2144856" cy="427759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>猫の青山</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>588820</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>311729</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="楕円 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4802BA-F1D1-4695-8C46-217F431F5FB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13750638" y="15361226"/>
+          <a:ext cx="415636" cy="363683"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>613104</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>115654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>383189</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>197069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016D5259-A0AC-8BD0-3407-086D8ECE2885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13718190" y="17457723"/>
+          <a:ext cx="1839309" cy="322277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コメント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>153276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>448879</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>208017</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAB41EB-542B-726A-7F91-EC8909EC7F95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15119568" y="17977069"/>
+          <a:ext cx="503621" cy="295603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>656897</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>120431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>481725</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>10948</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6588F2AE-6F55-665F-97F9-E455FB9478BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13761983" y="17944224"/>
+          <a:ext cx="1894052" cy="372241"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>197069</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>208016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>416034</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>164223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="フリーフォーム: 図形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09AA606-3AB2-1531-B2A0-4579A24A76FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15371379" y="17068361"/>
+          <a:ext cx="218965" cy="197069"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 492672"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 503621"/>
+            <a:gd name="connsiteX1" fmla="*/ 492672 w 492672"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 503621"/>
+            <a:gd name="connsiteX2" fmla="*/ 481724 w 492672"/>
+            <a:gd name="connsiteY2" fmla="*/ 503621 h 503621"/>
+            <a:gd name="connsiteX3" fmla="*/ 284655 w 492672"/>
+            <a:gd name="connsiteY3" fmla="*/ 339397 h 503621"/>
+            <a:gd name="connsiteX4" fmla="*/ 43793 w 492672"/>
+            <a:gd name="connsiteY4" fmla="*/ 492673 h 503621"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 492672"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 503621"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="492672" h="503621">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="492672" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="481724" y="503621"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="284655" y="339397"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="43793" y="492673"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>339726</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="正方形/長方形 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C911C2-33D4-4250-8A91-BBD0A199EB9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18087976" y="5270499"/>
+          <a:ext cx="501650" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>🔍</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>579729</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>207852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D589500-18EA-4742-D4B4-4FC3BA55A566}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396364" y="158750"/>
+          <a:ext cx="2657910" cy="3859102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>355601</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>75582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="222" name="図 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA56655-06B1-474B-A00E-2204554A8BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19177001" y="301625"/>
+          <a:ext cx="292100" cy="250207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="テキスト ボックス 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F722D85-D50F-4C8B-9ED1-B40A9B864520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19367500" y="523875"/>
+          <a:ext cx="2114550" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>チャット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>606137</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>69039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>493138</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>118141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="230" name="図 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD572A9F-C58A-4502-B8D6-73AEEAA5758E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16481137" y="12272082"/>
+          <a:ext cx="2647871" cy="3803885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>194829</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>129887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>261504</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>72737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="テキスト ボックス 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B92662-CCA6-451C-9936-4DEE5D4CC728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16820284" y="12750512"/>
+          <a:ext cx="2144856" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>個人</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>227009</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>125791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>112709</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="正方形/長方形 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E72C0C3-155F-4D73-AD51-7A3D377F2A29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16754171" y="13698916"/>
+          <a:ext cx="1951595" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>猫の青山</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>671080</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>270452</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>185264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="238" name="図 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21B8E9F-57C8-45AB-8AD2-E2B452CA7658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16603807" y="12555682"/>
+          <a:ext cx="292100" cy="250207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>303068</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>164991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>595745</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>184041</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="楕円 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058D747E-992D-4BB7-AD02-A338331A02C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16830230" y="13738116"/>
+          <a:ext cx="292677" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>65673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>176522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="239" name="正方形/長方形 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDCA721-D96E-4F50-AAE4-BE05CD49BB48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16803342" y="13911434"/>
+          <a:ext cx="1956353" cy="345523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>犬鈴木</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>290064</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>144744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>582741</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>160343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="楕円 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EC01D2-D525-4606-9C49-678FB13564D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16855281" y="13990505"/>
+          <a:ext cx="292677" cy="250273"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>220870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE35A74-9494-9F28-D021-8E5E610F271F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7675217" y="924892"/>
+          <a:ext cx="1546087" cy="248480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>96630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="242" name="正方形/長方形 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E590F7FA-407C-43C4-8335-8FECDB577B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7807739" y="4738893"/>
+          <a:ext cx="1546087" cy="285889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>224559</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>193279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>110259</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>69454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="243" name="正方形/長方形 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481A37D7-5171-4166-AD89-3ECF83316642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16789776" y="13100344"/>
+          <a:ext cx="1956353" cy="345523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>会話をはじめる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>179457</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>151848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>138043</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>151848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABC5284-CF43-0F1E-F6F2-CDDA8E248019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16744674" y="13058913"/>
+          <a:ext cx="2029239" cy="1408044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>401582</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>48314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>401582</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="244" name="正方形/長方形 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4D0F18-5025-4594-891C-8525459A4E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19727669" y="987010"/>
+          <a:ext cx="1380435" cy="421722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グループをつくる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>498212</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>75924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>317238</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="正方形/長方形 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFF7003-1590-4C1A-B489-F6A957BE11AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21204734" y="1014620"/>
+          <a:ext cx="509243" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>🔍</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>360168</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>186359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>245869</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="正方形/長方形 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39666B1-E9EE-4B99-8191-338654CF3C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19686255" y="1594402"/>
+          <a:ext cx="1956353" cy="602698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>世界一かわいい猫</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>飼ってます！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>429190</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>62120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>305366</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>128795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="テキスト ボックス 246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3255EFC4-FC13-4FC3-9663-E6AEAFB20BA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21135712" y="1939511"/>
+          <a:ext cx="566393" cy="301349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>👤</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>30</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>232065</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="正方形/長方形 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5A6293-969E-4721-97DD-4EDE5D70F3E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19672451" y="2257011"/>
+          <a:ext cx="1956353" cy="599246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>東京でおすすめの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>動物病院教えて</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>415385</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>291561</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="テキスト ボックス 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE385EB1-A496-4F72-AD46-10B89DEE81EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21121907" y="2546902"/>
+          <a:ext cx="566393" cy="297897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>👤</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>39</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>262283</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>345109</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4323BA7D-3904-E162-ADC6-40B563A0BA26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19588370" y="1532283"/>
+          <a:ext cx="2153478" cy="1546087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>345108</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>607391</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D93C465-3363-E68C-204C-0BC50139DEF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18980978" y="4003261"/>
+          <a:ext cx="262283" cy="220869"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>220869</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>96630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>220869</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>55218</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C28717-033F-63EB-18EF-56007DB69C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17476304" y="12065000"/>
+          <a:ext cx="0" cy="193261"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11204,8 +13600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5E51A8-215E-4621-9D1C-44763CD43360}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AC58" sqref="AC58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/doc/04_画面設計書_今日はどっち派？.xlsx
+++ b/doc/04_画面設計書_今日はどっち派？.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A52F47-9CA0-4A4C-BD1C-F26F9DD5EE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0459722F-8E2F-4C57-A1B5-EE8BE586DEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{744CE9C5-F14E-4513-A325-F5D24C8B34F1}"/>
   </bookViews>
@@ -172,23 +172,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009CE7E9-D487-43A6-BD13-CC61CAD55C07}"/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8355841F-F2B1-4766-AA80-58D17CC291DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -196,8 +196,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="571500" y="133349"/>
-          <a:ext cx="2628900" cy="3848101"/>
+          <a:off x="7016750" y="4200524"/>
+          <a:ext cx="2616200" cy="3848101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -235,23 +235,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B8A672-B027-4838-A87B-994BEA4F6D43}"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F628F63-7367-475E-8FF0-242AEC02544D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -259,8 +259,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3933825" y="161924"/>
-          <a:ext cx="2628900" cy="3848101"/>
+          <a:off x="10198474" y="4264398"/>
+          <a:ext cx="2619935" cy="3904690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -298,23 +298,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8355841F-F2B1-4766-AA80-58D17CC291DE}"/>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81B9699-4CFF-4F5F-A2BB-FEE7C70E5474}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -322,8 +322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7092674" y="4141856"/>
-          <a:ext cx="2646569" cy="3792883"/>
+          <a:off x="13154025" y="180975"/>
+          <a:ext cx="2628900" cy="3848101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -361,23 +361,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199C7711-E0A6-484D-AB31-908008E912F5}"/>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2677FDB4-FB1E-4A96-A083-0F89E89C3A3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -385,8 +385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="171450"/>
-          <a:ext cx="2628900" cy="3848101"/>
+          <a:off x="10315263" y="257174"/>
+          <a:ext cx="2632647" cy="3848101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -424,23 +424,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F628F63-7367-475E-8FF0-242AEC02544D}"/>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F42FF2-1A49-40A7-9373-093F6B1F61DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -448,8 +448,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10221686" y="4314824"/>
-          <a:ext cx="2626567" cy="3848101"/>
+          <a:off x="13197168" y="4229100"/>
+          <a:ext cx="2619935" cy="3800476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -487,23 +487,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81B9699-4CFF-4F5F-A2BB-FEE7C70E5474}"/>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935A1F4E-7764-458A-B97D-2584A91FAA99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -511,8 +511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13154025" y="180975"/>
-          <a:ext cx="2628900" cy="3848101"/>
+          <a:off x="16361352" y="152399"/>
+          <a:ext cx="2656609" cy="3917374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -550,23 +550,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2677FDB4-FB1E-4A96-A083-0F89E89C3A3A}"/>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446839C4-BD16-4C10-A83E-44DD5F204571}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -574,8 +574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10315263" y="257174"/>
-          <a:ext cx="2632647" cy="3848101"/>
+          <a:off x="10246099" y="8239124"/>
+          <a:ext cx="2619935" cy="3800476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,23 +613,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F42FF2-1A49-40A7-9373-093F6B1F61DF}"/>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BB01A8-DB37-4FD2-82B9-C95E968C62A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -637,7 +637,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13239750" y="4276725"/>
+          <a:off x="16230600" y="4286250"/>
           <a:ext cx="2628900" cy="3848101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -677,22 +677,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935A1F4E-7764-458A-B97D-2584A91FAA99}"/>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE15BC9-6F38-42B5-B59C-5CE32F58C3AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -700,8 +700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16361352" y="152399"/>
-          <a:ext cx="2656609" cy="3917374"/>
+          <a:off x="16233775" y="8353424"/>
+          <a:ext cx="2616200" cy="3848101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -739,23 +739,234 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446839C4-BD16-4C10-A83E-44DD5F204571}"/>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>225424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B893A8CD-4F91-B9D6-EDD6-AB4E858C4A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3932604" y="225424"/>
+          <a:ext cx="2640623" cy="3910380"/>
+          <a:chOff x="3917950" y="161924"/>
+          <a:chExt cx="2616200" cy="3848101"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B8A672-B027-4838-A87B-994BEA4F6D43}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3917950" y="161924"/>
+            <a:ext cx="2616200" cy="3848101"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAE9361-5D89-40FD-866A-F93B475DD471}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4181475" y="581025"/>
+            <a:ext cx="2209800" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>今日は気分は？</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="26" name="図 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8E4248-E232-64B1-1415-A911A20A8B42}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4429126" y="1219201"/>
+            <a:ext cx="1649200" cy="1104900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="図 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7B170F-AC7D-AD6A-C17D-E9C82B750B7B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4314825" y="2524125"/>
+            <a:ext cx="1890713" cy="1266825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74E4643-1591-426B-841C-9E807B810261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -763,843 +974,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10277475" y="8334374"/>
-          <a:ext cx="2628900" cy="3848101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BB01A8-DB37-4FD2-82B9-C95E968C62A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16230600" y="4286250"/>
-          <a:ext cx="2628900" cy="3848101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE15BC9-6F38-42B5-B59C-5CE32F58C3AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16233775" y="8353424"/>
-          <a:ext cx="2616200" cy="3848101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2252CA05-CCE0-2D59-C63D-CC2F597074FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="638175"/>
-          <a:ext cx="2219325" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>今日はどっち派？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFE0B52-46F0-850D-074A-45DF76B0F15C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="1666875"/>
-          <a:ext cx="1552575" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DF2676-4F06-444A-BB58-391C140E9C1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1114425" y="2238375"/>
-          <a:ext cx="1552575" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>40480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7911C1E-A594-4236-8697-D98353D51C7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1090613" y="3098005"/>
-          <a:ext cx="1562100" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新規登録はこちら</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CFD26A-0923-BBA3-1161-C0DCB998DCF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1247775" y="1362075"/>
-          <a:ext cx="1276350" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D9FE01-E2DB-44BC-9C83-B35D5D6850E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="1943100"/>
-          <a:ext cx="1228725" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>パスワード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAE9361-5D89-40FD-866A-F93B475DD471}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4200525" y="581025"/>
-          <a:ext cx="2219325" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>今日は気分は？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>617326</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8E4248-E232-64B1-1415-A911A20A8B42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4448176" y="1219201"/>
-          <a:ext cx="1655550" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7B170F-AC7D-AD6A-C17D-E9C82B750B7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4333875" y="2524125"/>
-          <a:ext cx="1900238" cy="1266825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65E9B24-5843-4E9B-92C1-7E0938E10013}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7343775" y="466725"/>
-          <a:ext cx="2219325" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>犬一覧（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>名前変えるべき</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09E806A-1A9C-EB40-636E-1747907C75F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7448550" y="1228725"/>
-          <a:ext cx="800100" cy="685800"/>
+          <a:off x="7473950" y="5162550"/>
+          <a:ext cx="793750" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1635,22 +1011,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941E334E-1B41-40E8-AF5A-111410428EC6}"/>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99545A0-4B4C-4C35-ABB5-F1CD3D66B3CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,8 +1034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8391525" y="1228725"/>
-          <a:ext cx="800100" cy="685800"/>
+          <a:off x="8458200" y="5143500"/>
+          <a:ext cx="796925" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1694,23 +1070,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7666C2A1-E433-486F-83B5-8DA68BA9FDB3}"/>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E3F109-8588-42B2-88C1-C593275F989A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,8 +1094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8391525" y="2038350"/>
-          <a:ext cx="800100" cy="685800"/>
+          <a:off x="7483475" y="5962650"/>
+          <a:ext cx="793750" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1754,23 +1130,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74E4643-1591-426B-841C-9E807B810261}"/>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FE9EF6-577B-4F70-8E68-68F04E8CAEF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,8 +1154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505700" y="5162550"/>
-          <a:ext cx="800100" cy="685800"/>
+          <a:off x="8458200" y="5972175"/>
+          <a:ext cx="796925" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1814,23 +1190,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99545A0-4B4C-4C35-ABB5-F1CD3D66B3CE}"/>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCE0B17-4E5A-41A1-A792-2A515CA00C07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,8 +1214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8496300" y="5143500"/>
-          <a:ext cx="800100" cy="685800"/>
+          <a:off x="7473950" y="6877050"/>
+          <a:ext cx="793750" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1874,366 +1250,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E3F109-8588-42B2-88C1-C593275F989A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7515225" y="5962650"/>
-          <a:ext cx="800100" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CBE385-203D-4023-A95A-053088013A15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="8410575" y="2838450"/>
-          <a:ext cx="800100" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DF2208-411F-40FD-AC6D-FF38625A7932}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="2828925"/>
-          <a:ext cx="800100" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>593236</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>21736</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA953876-5B50-410F-8524-7DC9299895D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7431698" y="2087196"/>
-          <a:ext cx="796192" cy="704117"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FE9EF6-577B-4F70-8E68-68F04E8CAEF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8496300" y="5972175"/>
-          <a:ext cx="800100" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCE0B17-4E5A-41A1-A792-2A515CA00C07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7505700" y="6877050"/>
-          <a:ext cx="800100" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -2258,8 +1274,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524875" y="6886575"/>
-          <a:ext cx="800100" cy="685800"/>
+          <a:off x="8486775" y="6886575"/>
+          <a:ext cx="796925" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2370,22 +1386,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>140318</xdr:rowOff>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B3AD54-77D3-B515-B975-4DD3AA0E5B14}"/>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C57BFF-66B4-41D2-BB88-A1D9D42950A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,59 +1425,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7134224" y="378443"/>
-          <a:ext cx="295275" cy="250207"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>83168</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C57BFF-66B4-41D2-BB88-A1D9D42950A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7143749" y="4369418"/>
+          <a:off x="7111999" y="4369418"/>
           <a:ext cx="295275" cy="250207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2476,13 +1440,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>65944</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2497,8 +1461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7162800" y="4591050"/>
-          <a:ext cx="809625" cy="1219200"/>
+          <a:off x="7192108" y="4660657"/>
+          <a:ext cx="812555" cy="241056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2528,210 +1492,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線コネクタ 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5C5AD4-3D4E-B8E7-DE5A-3F9205BDDD32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7153275" y="4838700"/>
-          <a:ext cx="809625" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線コネクタ 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10DDE8C-BE51-471D-8D6C-92C58C6E661C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7162800" y="5076825"/>
-          <a:ext cx="809625" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線コネクタ 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE791506-DD7E-437C-8E85-2C3A44D6A9B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7162800" y="5324475"/>
-          <a:ext cx="809625" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線コネクタ 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B1AC69-0FF3-48F9-ABE4-10E62934F7AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7172325" y="5572125"/>
-          <a:ext cx="809625" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規投稿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2802,23 +1569,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="テキスト ボックス 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1AAF785-AA3A-A88C-DB86-C973FC88AEC9}"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>221762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3333EC4B-CA65-4895-ABD4-D89D37DF842C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2826,328 +1593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7134225" y="5543549"/>
-          <a:ext cx="1009650" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>マイページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>405848</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="テキスト ボックス 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B40871-68B9-4E10-908A-03742571E970}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7207940" y="5360503"/>
-          <a:ext cx="759930" cy="259246"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>チャット</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="テキスト ボックス 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6337ADC-AF97-4A74-B372-01079B2C0DA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7248525" y="5057775"/>
-          <a:ext cx="1009650" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>掲示板</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="テキスト ボックス 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE8C1F8-4C8D-415B-91AA-11E0A0D01AD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="4591050"/>
-          <a:ext cx="1009650" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>投稿</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="テキスト ボックス 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5946AB78-1C2C-4911-BC50-12B5B44F42F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7324725" y="4829175"/>
-          <a:ext cx="1009650" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>閲覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>280865</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>43474</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>610578</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>36634</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="テキスト ボックス 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84693F27-04C6-F1D9-D8F5-E9518FB4276A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9170865" y="287705"/>
-          <a:ext cx="329713" cy="237391"/>
+          <a:off x="9191625" y="4269887"/>
+          <a:ext cx="412750" cy="364392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3183,76 +1630,6 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>😸</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>221762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="テキスト ボックス 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3333EC4B-CA65-4895-ABD4-D89D37DF842C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9207500" y="4373685"/>
-          <a:ext cx="413971" cy="376604"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>🐶</a:t>
           </a:r>
         </a:p>
@@ -3734,7 +2111,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>投稿</a:t>
+            <a:t>新規投稿</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3994,7 +2371,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>掲示板</a:t>
+            <a:t>新規掲示板</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4298,75 +2675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8876196" y="4776303"/>
-          <a:ext cx="414132" cy="224735"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>🔍</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>496956</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>27608</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="正方形/長方形 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9000AAF8-0C40-4169-8EB8-30DC698984BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8779565" y="966304"/>
-          <a:ext cx="393285" cy="172417"/>
+          <a:off x="8785087" y="4845325"/>
+          <a:ext cx="406540" cy="228186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4842,16 +3152,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>372595</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>210111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>658345</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>76761</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4866,8 +3176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14639925" y="7524751"/>
-          <a:ext cx="971550" cy="342900"/>
+          <a:off x="14043771" y="7505140"/>
+          <a:ext cx="969309" cy="337297"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4909,16 +3219,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254933</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>132790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4933,8 +3243,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13573125" y="7524751"/>
-          <a:ext cx="971550" cy="342900"/>
+          <a:off x="13693588" y="3560669"/>
+          <a:ext cx="1599639" cy="337297"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4966,7 +3276,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>削除</a:t>
+            <a:t>新規で掲示板を作る</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -6189,132 +4499,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="正方形/長方形 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B482AB81-7F78-4DD8-A390-CCBA78B5AA02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10677525" y="7315200"/>
-          <a:ext cx="800100" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>投稿した写真を見る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F630E148-CC42-40DE-9CBB-A6F5F685E076}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11668125" y="7315200"/>
-          <a:ext cx="800100" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>リアクションした投稿を見る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -6453,79 +4637,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>フォロー数</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="正方形/長方形 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B378AC89-B69D-42CA-B1BB-52418CA1C666}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11515725" y="6086474"/>
-          <a:ext cx="1047750" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>リアクション数</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6879,13 +4990,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>118222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>146797</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6900,8 +5011,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11572875" y="9553575"/>
-          <a:ext cx="1047750" cy="266700"/>
+          <a:off x="11537016" y="9531163"/>
+          <a:ext cx="1043268" cy="263899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6950,15 +5061,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>588869</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>219635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>265019</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6973,8 +5084,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11572875" y="9915525"/>
-          <a:ext cx="1047750" cy="266700"/>
+          <a:off x="11525810" y="9867900"/>
+          <a:ext cx="1043268" cy="263898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7014,79 +5125,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>フォロワー数</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="正方形/長方形 142">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26BCF77-CF9F-4157-A926-340F3EA1445F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11572875" y="10296524"/>
-          <a:ext cx="1047750" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>リアクション数</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7309,7 +5347,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿した写真</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7369,7 +5410,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿した写真</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7745,8 +5789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7877175" y="8439150"/>
-          <a:ext cx="1381125" cy="295275"/>
+          <a:off x="7852522" y="8341099"/>
+          <a:ext cx="1376643" cy="292473"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7778,194 +5822,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>昼下がりの猫</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="正方形/長方形 156">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF40822D-CCFB-4738-A26E-5EFD4EA285B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="523875" y="4400548"/>
-          <a:ext cx="2628900" cy="5619751"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="テキスト ボックス 157">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5AA37D-9336-4041-A6DE-D70A60684ECF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="723900" y="4629149"/>
-          <a:ext cx="2124075" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="楕円 159">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8160536A-0FA9-4D0A-A041-F544E8F689D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1266825" y="5419724"/>
-          <a:ext cx="885825" cy="885826"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8040,610 +5896,1044 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF88D3D-3BF2-5CD9-BF9C-E2368E4DB086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="539750" y="4387115"/>
+          <a:ext cx="2640623" cy="5704011"/>
+          <a:chOff x="523875" y="4400548"/>
+          <a:chExt cx="2616200" cy="5619751"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="157" name="正方形/長方形 156">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF40822D-CCFB-4738-A26E-5EFD4EA285B9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="523875" y="4400548"/>
+            <a:ext cx="2616200" cy="5619751"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="158" name="テキスト ボックス 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5AA37D-9336-4041-A6DE-D70A60684ECF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="720725" y="4629149"/>
+            <a:ext cx="2114550" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>新規登録</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="160" name="楕円 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8160536A-0FA9-4D0A-A041-F544E8F689D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1263650" y="5419724"/>
+            <a:ext cx="879475" cy="885826"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="162" name="テキスト ボックス 161">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3857ED25-C21D-545E-45F3-245AEC84F078}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1254125" y="5105400"/>
+            <a:ext cx="1003300" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>アイコン</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="163" name="正方形/長方形 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDB913E-1D18-492C-B53C-45A33F8927DE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="863600" y="6905625"/>
+            <a:ext cx="1765300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>名前：</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="164" name="正方形/長方形 163">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38A43D8-3301-45A2-97F7-84B28FFEE8A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="863600" y="6477000"/>
+            <a:ext cx="1765300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>猫〇　　　　犬〇</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="165" name="正方形/長方形 164">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E867270-F914-40C5-87CB-0086D2020FFF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="873125" y="7619999"/>
+            <a:ext cx="1765300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>住所：</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="166" name="正方形/長方形 165">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FCBF0DC-2AEE-49E1-90DE-BD0A5A93770F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="863600" y="8029574"/>
+            <a:ext cx="1765300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>パスワード：</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="168" name="正方形/長方形 167">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3EE235-EAA3-4DF4-A62A-9C903AA96432}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="844550" y="8458199"/>
+            <a:ext cx="1765300" cy="962026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>フリースペース</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="169" name="正方形/長方形 168">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8296D82E-CF0D-42F2-BF7C-D59B8674C9AF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="815975" y="9563099"/>
+            <a:ext cx="1765300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>登録する</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="170" name="正方形/長方形 169">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4637D7C7-05B0-4E01-854C-5826F8D55269}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="873125" y="7267575"/>
+            <a:ext cx="1765300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>メール：</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="テキスト ボックス 161">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3857ED25-C21D-545E-45F3-245AEC84F078}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1257300" y="5105400"/>
-          <a:ext cx="1009650" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C85043-1FC1-2847-7068-C5571063E30E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="571500" y="180974"/>
+          <a:ext cx="2640623" cy="3906716"/>
+          <a:chOff x="571500" y="133349"/>
+          <a:chExt cx="2616200" cy="3848101"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009CE7E9-D487-43A6-BD13-CC61CAD55C07}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="571500" y="133349"/>
+            <a:ext cx="2616200" cy="3848101"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキスト ボックス 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2252CA05-CCE0-2D59-C63D-CC2F597074FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="796925" y="638175"/>
+            <a:ext cx="2209800" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="lt1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>アイコン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="正方形/長方形 162">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDB913E-1D18-492C-B53C-45A33F8927DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="866775" y="6905625"/>
-          <a:ext cx="1771650" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>今日はどっち派？</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFE0B52-46F0-850D-074A-45DF76B0F15C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1101725" y="1666875"/>
+            <a:ext cx="1546225" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DF2676-4F06-444A-BB58-391C140E9C1C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1111250" y="2238375"/>
+            <a:ext cx="1546225" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7911C1E-A594-4236-8697-D98353D51C7A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1082675" y="3098005"/>
+            <a:ext cx="1546225" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>新規登録はこちら</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="テキスト ボックス 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CFD26A-0923-BBA3-1161-C0DCB998DCF8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1244600" y="1362075"/>
+            <a:ext cx="1270000" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="lt1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>名前：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="正方形/長方形 163">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38A43D8-3301-45A2-97F7-84B28FFEE8A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="866775" y="6477000"/>
-          <a:ext cx="1771650" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログイン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキスト ボックス 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D9FE01-E2DB-44BC-9C83-B35D5D6850E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1282700" y="1943100"/>
+            <a:ext cx="1222375" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="lt1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>猫〇　　　　犬〇</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="正方形/長方形 164">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E867270-F914-40C5-87CB-0086D2020FFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="876300" y="7619999"/>
-          <a:ext cx="1771650" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>パスワード</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="171" name="正方形/長方形 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83716513-C580-46C3-9056-8BE8AF92D14A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1341743" y="2604659"/>
+            <a:ext cx="1028455" cy="329467"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="FFCCFF"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>住所：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="正方形/長方形 165">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FCBF0DC-2AEE-49E1-90DE-BD0A5A93770F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="866775" y="8029574"/>
-          <a:ext cx="1771650" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>パスワード：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="正方形/長方形 167">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3EE235-EAA3-4DF4-A62A-9C903AA96432}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="847725" y="8458199"/>
-          <a:ext cx="1771650" cy="962026"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>フリースペース</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="正方形/長方形 168">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8296D82E-CF0D-42F2-BF7C-D59B8674C9AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="819150" y="9563099"/>
-          <a:ext cx="1771650" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>登録する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="正方形/長方形 169">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4637D7C7-05B0-4E01-854C-5826F8D55269}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="876300" y="7267575"/>
-          <a:ext cx="1771650" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メール：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>659118</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>223409</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>322323</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="正方形/長方形 170">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83716513-C580-46C3-9056-8BE8AF92D14A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1349681" y="2604659"/>
-          <a:ext cx="1044330" cy="329467"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFCCFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログイン</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -12435,22 +10725,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>220870</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>248478</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE35A74-9494-9F28-D021-8E5E610F271F}"/>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>96630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="242" name="正方形/長方形 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E590F7FA-407C-43C4-8335-8FECDB577B03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12458,8 +10748,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7675217" y="924892"/>
-          <a:ext cx="1546087" cy="248480"/>
+          <a:off x="7991475" y="4807915"/>
+          <a:ext cx="1304925" cy="289340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12500,68 +10790,610 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>215348</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45415</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>96630</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="242" name="正方形/長方形 241">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E590F7FA-407C-43C4-8335-8FECDB577B03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7807739" y="4738893"/>
-          <a:ext cx="1546087" cy="285889"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3176</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="グループ化 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA1ABEC-2C38-C1B9-8E6B-1E382A0A15B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7119083" y="203200"/>
+          <a:ext cx="2640623" cy="3910380"/>
+          <a:chOff x="6978650" y="171450"/>
+          <a:chExt cx="2616200" cy="3848101"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199C7711-E0A6-484D-AB31-908008E912F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6978650" y="171450"/>
+            <a:ext cx="2616200" cy="3848101"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="テキスト ボックス 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65E9B24-5843-4E9B-92C1-7E0938E10013}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7312025" y="466725"/>
+            <a:ext cx="2209800" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="lt1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>犬一覧（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+              <a:t>名前変えるべき</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09E806A-1A9C-EB40-636E-1747907C75F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7416800" y="1228725"/>
+            <a:ext cx="793750" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941E334E-1B41-40E8-AF5A-111410428EC6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8353425" y="1228725"/>
+            <a:ext cx="796925" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7666C2A1-E433-486F-83B5-8DA68BA9FDB3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8353425" y="2038350"/>
+            <a:ext cx="796925" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CBE385-203D-4023-A95A-053088013A15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="8372475" y="2838450"/>
+            <a:ext cx="796925" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DF2208-411F-40FD-AC6D-FF38625A7932}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7397750" y="2828925"/>
+            <a:ext cx="793750" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA953876-5B50-410F-8524-7DC9299895D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7419486" y="2038350"/>
+            <a:ext cx="793750" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="51" name="図 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B3AD54-77D3-B515-B975-4DD3AA0E5B14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7102474" y="378443"/>
+            <a:ext cx="295275" cy="250207"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="テキスト ボックス 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84693F27-04C6-F1D9-D8F5-E9518FB4276A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9154990" y="281599"/>
+            <a:ext cx="329713" cy="231285"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>😸</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="正方形/長方形 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9000AAF8-0C40-4169-8EB8-30DC698984BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8688456" y="980108"/>
+            <a:ext cx="385693" cy="172417"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>🔍</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="正方形/長方形 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE35A74-9494-9F28-D021-8E5E610F271F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7591701" y="935245"/>
+            <a:ext cx="1530902" cy="255382"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -13296,6 +12128,2086 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="正方形/長方形 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56DDD13-5CAF-4DA2-BB68-568B67396D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10264588" y="7272617"/>
+          <a:ext cx="1434353" cy="862854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>投稿タイトル一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>昼下がりの猫</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・（まだ投稿がありません）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>96369</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="正方形/長方形 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDF6261-7F1F-4D7B-8BF5-B4EA8DFC3B75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11716869" y="7268135"/>
+          <a:ext cx="1013013" cy="486336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リアクションした投稿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>91889</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>451598</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="正方形/長方形 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACEC98F-D972-4374-9EC3-763F08256DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11712389" y="7767917"/>
+          <a:ext cx="1043268" cy="263899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>保存した掲示板</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>560293</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>51813</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: V 字型 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A882C7-C5D4-95D6-6CED-E9624D2E7AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11246489" y="7687235"/>
+          <a:ext cx="676569" cy="175079"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>132230</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="正方形/長方形 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E40EE0E-788A-4BD0-A95B-E29444ECE122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7082118" y="12416117"/>
+          <a:ext cx="2619936" cy="3803277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368114</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>90766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="テキスト ボックス 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDF6EAE-FC0B-4B44-A5C2-05C98EC8AC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877736" y="12505764"/>
+          <a:ext cx="1376643" cy="292473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>昼下がりの猫</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476811</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>94689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="正方形/長方形 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5981F719-1EB6-4277-AAB5-AFDF10115EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7474324" y="12830735"/>
+          <a:ext cx="1888752" cy="1383366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>382122</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>163048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="正方形/長方形 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A30CEB-E5DF-4FF6-8A1F-893D783D6764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7541560" y="14489206"/>
+          <a:ext cx="1726827" cy="499224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日向で寝ているうちの猫</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ペルシャ猫</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>437031</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="正方形/長方形 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D537108A-F518-4D8B-801D-8B0125C2CE29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7956178" y="15710646"/>
+          <a:ext cx="728381" cy="268942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="正方形/長方形 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B629FA3B-4BED-4C38-A7C5-CFEC212FEC3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7944971" y="15296029"/>
+          <a:ext cx="728381" cy="268942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　更新</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>412377</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>15688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="正方形/長方形 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A4FDFF-59E5-4035-992E-4C09F93432D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="12449735"/>
+          <a:ext cx="2619936" cy="3803277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>649940</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>261657</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>124140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="232" name="図 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CC6D96-903A-4C0F-925D-E2464D800498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10219764" y="12584206"/>
+          <a:ext cx="295275" cy="247405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>105894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="テキスト ボックス 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3B4788-854A-4B81-B5AE-153314A145D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10443882" y="12841940"/>
+          <a:ext cx="2212602" cy="442072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>リアクションした投稿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>150718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="正方形/長方形 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E23C07-4E9B-4815-8FE1-D5C1A886D92B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10488706" y="13357411"/>
+          <a:ext cx="795618" cy="677395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600635</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>29135</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>168648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="241" name="正方形/長方形 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73FC3C94-F8F5-4344-B6D4-D11F77CD4B42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11537576" y="13375341"/>
+          <a:ext cx="795618" cy="677395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237565</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>349624</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="正方形/長方形 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50630BF-D93B-4C24-932B-269EEC314C27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10490947" y="14233712"/>
+          <a:ext cx="795618" cy="677395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>109817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>81242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="正方形/長方形 250">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D735257-108C-418B-A61E-2D6EB6EB10E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11584641" y="14229229"/>
+          <a:ext cx="795618" cy="677395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676836</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>82923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>105336</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>54348</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="正方形/長方形 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61C18A8-AF95-44E6-A51C-09BA22F276AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11613777" y="15143629"/>
+          <a:ext cx="795618" cy="677395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403413</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="253" name="正方形/長方形 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA8312B-72EC-400E-A3BC-E8E1C76DACAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10544736" y="15127941"/>
+          <a:ext cx="795618" cy="677395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>479611</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>172571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="正方形/長方形 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016829E0-6881-4450-81C8-2D77DA142810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163735" y="16607118"/>
+          <a:ext cx="2619935" cy="3803277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>72837</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>133910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="正方形/長方形 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85316BF6-7FA6-4DCC-8FE6-BDB0BC7EECB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10611970" y="17481176"/>
+          <a:ext cx="1764926" cy="301999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>猫〇　　　　犬〇</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>268381</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>166967</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="テキスト ボックス 256">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F01852-A0D8-4EC8-BE12-AB46C76D5910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10455089" y="16932088"/>
+          <a:ext cx="2117351" cy="413497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>保存した掲示板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>328893</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>23288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="258" name="図 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCDE500-C1E2-440C-9EBA-FF14BA729777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10287000" y="16719177"/>
+          <a:ext cx="295275" cy="247405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>154640</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>226359</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="正方形/長方形 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0FC4BB-2D14-4A54-958F-94289F1540C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10522323" y="17996648"/>
+          <a:ext cx="1936376" cy="349623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月オフ会の希望日程</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>165846</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>21852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="正方形/長方形 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E821D4-A016-42E8-A7A8-730E8580467E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10533529" y="18500912"/>
+          <a:ext cx="1936376" cy="346822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4/2.15:00~Zoom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>オフ会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>653864</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>101728</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="261" name="図 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A720F2A-7042-4267-A396-9AB75CC0BE43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7194177" y="12561794"/>
+          <a:ext cx="295275" cy="247405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327772</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>623047</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>151594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="262" name="図 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142F5C17-A809-449E-BEDD-C0596EC59219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7163360" y="8375836"/>
+          <a:ext cx="295275" cy="247405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>310662</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434487</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="正方形/長方形 253">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD2FF82-F933-45C4-9C40-C1C26897212A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7197970" y="4908307"/>
+          <a:ext cx="812555" cy="241056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　閲覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>316525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>70341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="正方形/長方形 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641CD51F-026A-4F2F-BE33-C43C8D2D2D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7203833" y="5148631"/>
+          <a:ext cx="812555" cy="241056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　掲示板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>431556</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="正方形/長方形 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD06F8B-3B9A-4307-94BB-2C7169FAC2ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7195039" y="5396280"/>
+          <a:ext cx="812555" cy="241056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チャット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>468924</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>72537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="正方形/長方形 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADB0D0E-7F15-4B2C-8892-5DE6DE3023AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7173058" y="5634404"/>
+          <a:ext cx="871904" cy="241056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>マイページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13600,8 +14512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5E51A8-215E-4621-9D1C-44763CD43360}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AC58" sqref="AC58"/>
+    <sheetView tabSelected="1" topLeftCell="G18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/doc/04_画面設計書_今日はどっち派？.xlsx
+++ b/doc/04_画面設計書_今日はどっち派？.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF4A71A-760C-4A70-8EA8-E92C628E0B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6D7ED3-26E7-4B10-AAF0-61E179B3B43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{744CE9C5-F14E-4513-A325-F5D24C8B34F1}"/>
   </bookViews>
@@ -129,8 +129,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4382861" y="1567995"/>
-          <a:ext cx="2776764" cy="4020005"/>
+          <a:off x="4340839" y="1551186"/>
+          <a:ext cx="2748749" cy="3972380"/>
           <a:chOff x="3917950" y="161924"/>
           <a:chExt cx="2616200" cy="3848101"/>
         </a:xfrm>
@@ -311,392 +311,6 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>128814</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>14514</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="63" name="グループ化 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D47FEF-83CF-F2CA-1E4C-DFDC9EBB4C68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="16011752" y="6362700"/>
-          <a:ext cx="2647950" cy="3857626"/>
-          <a:chOff x="13136336" y="4392386"/>
-          <a:chExt cx="2607128" cy="3963761"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F42FF2-1A49-40A7-9373-093F6B1F61DF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13136336" y="4392386"/>
-            <a:ext cx="2607128" cy="3963761"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="76" name="図 75">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F7435D-A25C-487F-8B58-20035175B061}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="13241111" y="4542064"/>
-            <a:ext cx="295275" cy="257011"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="テキスト ボックス 84">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE73C6E1-7F8B-4237-A546-D9A3BBF974E9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13355411" y="4834618"/>
-            <a:ext cx="2107746" cy="432707"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-              <a:t>新規掲示板</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="正方形/長方形 96">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8420C100-7D26-4BA6-80C1-C64D2E593E2B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13517336" y="5426529"/>
-            <a:ext cx="1926771" cy="359228"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>タイトル</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="正方形/長方形 97">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E2BF6E-1813-4C66-981B-21E824C618DD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13517336" y="6011636"/>
-            <a:ext cx="1926771" cy="1148443"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>投稿内容</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="正方形/長方形 98">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4401CE71-9E31-426E-8CFF-8A0F4DF39A9E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13979738" y="7802897"/>
-            <a:ext cx="966107" cy="356507"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>投稿</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="正方形/長方形 100">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A721850-0235-498A-AD8D-CE9A339B2C57}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13545911" y="7245804"/>
-            <a:ext cx="1926771" cy="366032"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>猫〇　　　　犬〇</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -726,8 +340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15936006" y="1684565"/>
-          <a:ext cx="2646362" cy="3857172"/>
+          <a:off x="15774921" y="1664955"/>
+          <a:ext cx="2625351" cy="3812348"/>
           <a:chOff x="13050611" y="180975"/>
           <a:chExt cx="2607128" cy="3956958"/>
         </a:xfrm>
@@ -1172,8 +786,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="722766" y="14409056"/>
-          <a:ext cx="2655887" cy="3848101"/>
+          <a:off x="715762" y="14240968"/>
+          <a:ext cx="2634876" cy="3803277"/>
           <a:chOff x="16076839" y="152399"/>
           <a:chExt cx="2607129" cy="3956958"/>
         </a:xfrm>
@@ -1446,8 +1060,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15957323" y="14795579"/>
-          <a:ext cx="2643187" cy="3845300"/>
+          <a:off x="15796238" y="14621888"/>
+          <a:ext cx="2622176" cy="3800476"/>
           <a:chOff x="10201275" y="8575300"/>
           <a:chExt cx="2607129" cy="3954157"/>
         </a:xfrm>
@@ -2055,8 +1669,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="722313" y="6226173"/>
-          <a:ext cx="2640012" cy="5619751"/>
+          <a:off x="715309" y="6153335"/>
+          <a:ext cx="2619001" cy="5555317"/>
           <a:chOff x="523875" y="4400548"/>
           <a:chExt cx="2616200" cy="5619751"/>
         </a:xfrm>
@@ -2651,8 +2265,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="634999" y="1555750"/>
-          <a:ext cx="2809875" cy="4029075"/>
+          <a:off x="634999" y="1538941"/>
+          <a:ext cx="2781860" cy="3981450"/>
           <a:chOff x="571500" y="133349"/>
           <a:chExt cx="2616200" cy="3848101"/>
         </a:xfrm>
@@ -3076,7 +2690,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>362403</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>243112</xdr:rowOff>
+      <xdr:rowOff>233587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -3097,8 +2711,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10720841" y="14282962"/>
-          <a:ext cx="2647949" cy="3850823"/>
+          <a:off x="10615785" y="14117675"/>
+          <a:ext cx="2619935" cy="3803198"/>
           <a:chOff x="18979243" y="4437289"/>
           <a:chExt cx="2607128" cy="3956958"/>
         </a:xfrm>
@@ -3214,8 +2828,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="19307175" y="5407478"/>
-            <a:ext cx="1926771" cy="359228"/>
+            <a:off x="19351780" y="5570702"/>
+            <a:ext cx="1926771" cy="932024"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3255,10 +2869,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="177" name="正方形/長方形 176">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A527F99D-E73F-41D3-99D3-81439C8F5AE4}"/>
+          <xdr:cNvPr id="178" name="正方形/長方形 177">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0F0818-62F0-4955-9376-00B9550E5EAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3266,8 +2880,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="19297650" y="5916386"/>
-            <a:ext cx="1926771" cy="849085"/>
+            <a:off x="19818875" y="6837651"/>
+            <a:ext cx="960664" cy="356507"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3299,111 +2913,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>概要説明、ひとこと</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="178" name="正方形/長方形 177">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0F0818-62F0-4955-9376-00B9550E5EAB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="20387582" y="7000875"/>
-            <a:ext cx="960664" cy="356507"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>作成</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="179" name="正方形/長方形 178">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF00FA0-3CA5-4961-8C25-B6A8B5EED31C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19316700" y="7010400"/>
-            <a:ext cx="966107" cy="356507"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>削除</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -3500,8 +3010,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="615042" y="18657433"/>
-          <a:ext cx="2658155" cy="3854903"/>
+          <a:off x="615042" y="18438918"/>
+          <a:ext cx="2630140" cy="3810080"/>
           <a:chOff x="16181615" y="8591548"/>
           <a:chExt cx="2607129" cy="3956958"/>
         </a:xfrm>
@@ -3883,909 +3393,6 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
               <a:t>個人</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>205551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>232107</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="129" name="グループ化 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276621A9-76CE-B7F6-4ED4-FF4FF2749337}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="738188" y="23303676"/>
-          <a:ext cx="2640012" cy="3836556"/>
-          <a:chOff x="19026868" y="8572500"/>
-          <a:chExt cx="2607128" cy="3956958"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="173" name="正方形/長方形 172">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E127AD9-7F6B-44FA-9081-7D8575972C69}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19026868" y="8572500"/>
-            <a:ext cx="2607128" cy="3956958"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="183" name="楕円 182">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EBB8CB-E2FD-4365-B26A-845288FCA3F6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19345275" y="8931729"/>
-            <a:ext cx="518432" cy="547007"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="184" name="テキスト ボックス 183">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817547CB-E9C0-4AE5-A245-C4F26BB8EBEB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19411950" y="8979353"/>
-            <a:ext cx="2107746" cy="432707"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-              <a:t>猫の青山</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="185" name="吹き出し: 角を丸めた四角形 184">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497C3A11-08AB-3ABF-17CE-0001B81596A8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19183350" y="9835243"/>
-            <a:ext cx="1417864" cy="330653"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRoundRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -58833"/>
-              <a:gd name="adj2" fmla="val -46324"/>
-              <a:gd name="adj3" fmla="val 16667"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="186" name="吹き出し: 角を丸めた四角形 185">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5033DECE-9888-4FD9-8A1B-A19B51B2E376}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="20111357" y="10382250"/>
-            <a:ext cx="1417864" cy="330654"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRoundRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 54500"/>
-              <a:gd name="adj2" fmla="val -43383"/>
-              <a:gd name="adj3" fmla="val 16667"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="187" name="吹き出し: 角を丸めた四角形 186">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807F5F34-B72E-446E-9D48-B2AB6504F883}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19202400" y="10834007"/>
-            <a:ext cx="1417864" cy="330654"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRoundRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -58833"/>
-              <a:gd name="adj2" fmla="val -46324"/>
-              <a:gd name="adj3" fmla="val 16667"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="188" name="正方形/長方形 187">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68C0702-4045-E82A-D8E5-312A8F56077F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19326225" y="12096750"/>
-            <a:ext cx="2174421" cy="292554"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>メッセージを書く</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466272</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>471714</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>210913</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="130" name="グループ化 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F044DA33-C043-B7DE-AA15-9D9A22001084}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6681335" y="20165787"/>
-          <a:ext cx="2767692" cy="3857626"/>
-          <a:chOff x="21847629" y="4408714"/>
-          <a:chExt cx="2726871" cy="3966483"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="189" name="正方形/長方形 188">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549A99E4-E1A3-468D-B860-D0C41D54DC28}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="21847629" y="4408714"/>
-            <a:ext cx="2726871" cy="3966483"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="190" name="正方形/長方形 189">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8D366D-91E7-4CC7-9C3D-34A2F3B67136}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="22181004" y="4618264"/>
-            <a:ext cx="1926771" cy="630011"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>コスパいいおやつ</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>決定戦</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="191" name="テキスト ボックス 190">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF265717-6D78-D2F0-C605-0CFDE966FAA8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="21881647" y="5299982"/>
-            <a:ext cx="2645228" cy="292555"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>コスパがいいおやつを述べよ。</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="192" name="吹き出し: 角を丸めた四角形 191">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DAA340-5BAA-4CEC-BC5D-D067A55DD328}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="22019079" y="5719082"/>
-            <a:ext cx="1417864" cy="330654"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRoundRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -58833"/>
-              <a:gd name="adj2" fmla="val -46324"/>
-              <a:gd name="adj3" fmla="val 16667"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="193" name="吹き出し: 角を丸めた四角形 192">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7172239C-419A-4C41-A421-F9D239188DD5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="22019079" y="6151789"/>
-            <a:ext cx="1417864" cy="330654"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRoundRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -58833"/>
-              <a:gd name="adj2" fmla="val -46324"/>
-              <a:gd name="adj3" fmla="val 16667"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="194" name="吹き出し: 角を丸めた四角形 193">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA003FB-95A4-427C-91A6-81B5FF54B5E6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="22009554" y="6596743"/>
-            <a:ext cx="1417864" cy="337457"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRoundRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -58833"/>
-              <a:gd name="adj2" fmla="val -46324"/>
-              <a:gd name="adj3" fmla="val 16667"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="196" name="吹き出し: 角を丸めた四角形 195">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDFF31D-7D95-4972-9D82-BEB521DDC442}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="21980979" y="7576457"/>
-            <a:ext cx="1417864" cy="337457"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRoundRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -58833"/>
-              <a:gd name="adj2" fmla="val -46324"/>
-              <a:gd name="adj3" fmla="val 16667"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="197" name="吹き出し: 角を丸めた四角形 196">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7D7C4C-3E2D-427A-984E-64504F428872}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="22851836" y="7121979"/>
-            <a:ext cx="1417864" cy="330653"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRoundRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 61834"/>
-              <a:gd name="adj2" fmla="val -43383"/>
-              <a:gd name="adj3" fmla="val 16667"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="198" name="正方形/長方形 197">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889021AC-E449-4763-9EF5-FEDA8F948AE3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="22161954" y="7999639"/>
-            <a:ext cx="2174421" cy="292554"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>メッセージを書く</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -4819,8 +3426,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25587553" y="14497957"/>
-          <a:ext cx="2643187" cy="5191578"/>
+          <a:off x="25328416" y="14329869"/>
+          <a:ext cx="2622177" cy="5129945"/>
           <a:chOff x="24325489" y="14130564"/>
           <a:chExt cx="2612572" cy="5735866"/>
         </a:xfrm>
@@ -5366,8 +3973,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12257088" y="1695903"/>
-          <a:ext cx="2653393" cy="3848101"/>
+          <a:off x="12138025" y="1676293"/>
+          <a:ext cx="2625378" cy="3803277"/>
           <a:chOff x="10214882" y="263978"/>
           <a:chExt cx="2612572" cy="3956958"/>
         </a:xfrm>
@@ -5788,23 +4395,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>257630</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>198335</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>478064</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>131534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>143329</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>240766</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>366939</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="77" name="グループ化 76">
+        <xdr:cNvPr id="116" name="グループ化 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56EF339-6FE2-194C-63CC-273BA12B60BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB57428D-6D27-6689-FAA8-76C914369544}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5812,18 +4419,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19593380" y="1627085"/>
-          <a:ext cx="2647949" cy="3852431"/>
-          <a:chOff x="13117286" y="14816941"/>
-          <a:chExt cx="2607128" cy="3961289"/>
+          <a:off x="4579417" y="14250946"/>
+          <a:ext cx="2623110" cy="4160319"/>
+          <a:chOff x="16105414" y="4408714"/>
+          <a:chExt cx="2607129" cy="4328428"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="201" name="正方形/長方形 200">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B625E9-A8D9-481B-B5C0-948109155CE1}"/>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BB01A8-DB37-4FD2-82B9-C95E968C62A9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5831,8 +4438,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13117286" y="14816941"/>
-            <a:ext cx="2607128" cy="3961289"/>
+            <a:off x="16105414" y="4408714"/>
+            <a:ext cx="2607129" cy="4328428"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5866,12 +4473,49 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="79" name="図 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E848EB20-061E-4E36-B3A1-4D68AFF84F6C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="16257814" y="4570639"/>
+            <a:ext cx="289832" cy="257011"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="207" name="テキスト ボックス 206">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84951016-8AC0-4DA5-A4EF-BC6D6E2A5599}"/>
+          <xdr:cNvPr id="84" name="テキスト ボックス 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF832A8-944A-42FB-92BD-0B4278E16EE7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5879,8 +4523,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13394377" y="15113825"/>
-            <a:ext cx="2107746" cy="432707"/>
+            <a:off x="16398758" y="4822958"/>
+            <a:ext cx="2307788" cy="432707"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5911,668 +4555,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-              <a:t>掲示板</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="211" name="図 210">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B67CBBF-C044-4745-95F4-AC304D8CFCB1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="13238513" y="14957961"/>
-            <a:ext cx="295275" cy="257009"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="212" name="正方形/長方形 211">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C32C76-239C-4B9F-BD58-78B833F9A54C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13515604" y="15972312"/>
-            <a:ext cx="1926771" cy="359229"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>タイトル</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="213" name="正方形/長方形 212">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D064F4-A392-48F9-8CBC-8463EA208334}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13498285" y="16444849"/>
-            <a:ext cx="1926771" cy="1145970"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>投稿内容</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="テキスト ボックス 215">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC56EDE-9D39-4338-9BFE-A1F441A9DCAC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13377059" y="15482454"/>
-            <a:ext cx="2107745" cy="430233"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-              <a:t>猫の青山</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="217" name="楕円 216">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4802BA-F1D1-4695-8C46-217F431F5FB8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13515606" y="15517090"/>
-            <a:ext cx="403266" cy="366157"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="テキスト ボックス 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016D5259-A0AC-8BD0-3407-086D8ECE2885}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13539890" y="17750511"/>
-            <a:ext cx="1811156" cy="326344"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>コメント</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="テキスト ボックス 43">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAB41EB-542B-726A-7F91-EC8909EC7F95}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14922499" y="18277990"/>
-            <a:ext cx="494237" cy="299670"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>送信</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6588F2AE-6F55-665F-97F9-E455FB9478BD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13583683" y="18245145"/>
-            <a:ext cx="1865899" cy="380374"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="フリーフォーム: 図形 48">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09AA606-3AB2-1531-B2A0-4579A24A76FD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15164926" y="17353016"/>
-            <a:ext cx="218965" cy="201136"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 0 w 492672"/>
-              <a:gd name="connsiteY0" fmla="*/ 0 h 503621"/>
-              <a:gd name="connsiteX1" fmla="*/ 492672 w 492672"/>
-              <a:gd name="connsiteY1" fmla="*/ 0 h 503621"/>
-              <a:gd name="connsiteX2" fmla="*/ 481724 w 492672"/>
-              <a:gd name="connsiteY2" fmla="*/ 503621 h 503621"/>
-              <a:gd name="connsiteX3" fmla="*/ 284655 w 492672"/>
-              <a:gd name="connsiteY3" fmla="*/ 339397 h 503621"/>
-              <a:gd name="connsiteX4" fmla="*/ 43793 w 492672"/>
-              <a:gd name="connsiteY4" fmla="*/ 492673 h 503621"/>
-              <a:gd name="connsiteX5" fmla="*/ 0 w 492672"/>
-              <a:gd name="connsiteY5" fmla="*/ 0 h 503621"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX2" y="connsiteY2"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX3" y="connsiteY3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX4" y="connsiteY4"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX5" y="connsiteY5"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="492672" h="503621">
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="492672" y="0"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="481724" y="503621"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="284655" y="339397"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="43793" y="492673"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="0"/>
-                </a:lnTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>478064</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>131535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>366939</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>169636</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="116" name="グループ化 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB57428D-6D27-6689-FAA8-76C914369544}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4621439" y="14419035"/>
-          <a:ext cx="2651125" cy="3848101"/>
-          <a:chOff x="16105414" y="4408714"/>
-          <a:chExt cx="2607129" cy="3956958"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="正方形/長方形 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BB01A8-DB37-4FD2-82B9-C95E968C62A9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16105414" y="4408714"/>
-            <a:ext cx="2607129" cy="3956958"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="79" name="図 78">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E848EB20-061E-4E36-B3A1-4D68AFF84F6C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="16257814" y="4570639"/>
-            <a:ext cx="289832" cy="257011"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="テキスト ボックス 83">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF832A8-944A-42FB-92BD-0B4278E16EE7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16442871" y="4834617"/>
-            <a:ext cx="2107747" cy="432707"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-              <a:t>チャット</a:t>
+              <a:t>グループチャット</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -7052,8 +5035,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4531631" y="6405789"/>
-          <a:ext cx="2647951" cy="3854905"/>
+          <a:off x="4489609" y="6332951"/>
+          <a:ext cx="2619936" cy="3807280"/>
           <a:chOff x="6978650" y="171450"/>
           <a:chExt cx="2616200" cy="3848101"/>
         </a:xfrm>
@@ -7660,8 +5643,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2847192" y="19760226"/>
-          <a:ext cx="2641315" cy="3852298"/>
+          <a:off x="2819177" y="19530505"/>
+          <a:ext cx="2620304" cy="3804673"/>
           <a:chOff x="16254351" y="12805325"/>
           <a:chExt cx="2608430" cy="3967959"/>
         </a:xfrm>
@@ -7797,43 +5780,6 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="238" name="図 237">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21B8E9F-57C8-45AB-8AD2-E2B452CA7658}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="16319294" y="12909468"/>
-            <a:ext cx="279729" cy="257010"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="234" name="楕円 233">
@@ -8114,8 +6060,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6946901" y="15616916"/>
-          <a:ext cx="2633273" cy="3868627"/>
+          <a:off x="6876864" y="15434820"/>
+          <a:ext cx="2612262" cy="3823804"/>
           <a:chOff x="19050000" y="158750"/>
           <a:chExt cx="2620800" cy="3967959"/>
         </a:xfrm>
@@ -8149,43 +6095,6 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="222" name="図 221">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA56655-06B1-474B-A00E-2204554A8BBA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="19113501" y="308429"/>
-            <a:ext cx="292100" cy="257010"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="223" name="テキスト ボックス 222">
@@ -8199,8 +6108,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="19304000" y="537482"/>
-            <a:ext cx="2107746" cy="425904"/>
+            <a:off x="19154742" y="537482"/>
+            <a:ext cx="2257004" cy="425904"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8231,7 +6140,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-              <a:t>チャット</a:t>
+              <a:t>グループチャット</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -8649,8 +6558,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23038107" y="19633479"/>
-          <a:ext cx="2651126" cy="3857705"/>
+          <a:off x="22806985" y="19403758"/>
+          <a:ext cx="2623111" cy="3812882"/>
           <a:chOff x="10051676" y="12949197"/>
           <a:chExt cx="2607130" cy="3966562"/>
         </a:xfrm>
@@ -8703,43 +6612,6 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="232" name="図 231">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CC6D96-903A-4C0F-925D-E2464D800498}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="10174940" y="13093273"/>
-            <a:ext cx="292074" cy="257010"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="235" name="テキスト ボックス 234">
@@ -9091,8 +6963,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19431185" y="19692472"/>
-          <a:ext cx="2643188" cy="3848100"/>
+          <a:off x="19235082" y="19462751"/>
+          <a:ext cx="2622177" cy="3803277"/>
           <a:chOff x="10118911" y="17279471"/>
           <a:chExt cx="2607129" cy="3956957"/>
         </a:xfrm>
@@ -9247,43 +7119,6 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="258" name="図 257">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCDE500-C1E2-440C-9EBA-FF14BA729777}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="10238975" y="17401135"/>
-            <a:ext cx="295275" cy="257010"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="259" name="正方形/長方形 258">
@@ -9406,15 +7241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>378519</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>233720</xdr:rowOff>
+      <xdr:colOff>456960</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>121662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>264220</xdr:colOff>
+      <xdr:colOff>342661</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>33695</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9429,8 +7264,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16261457" y="19521845"/>
-          <a:ext cx="2647951" cy="3848100"/>
+          <a:off x="16178813" y="19418191"/>
+          <a:ext cx="2619936" cy="3800475"/>
           <a:chOff x="7050101" y="12915578"/>
           <a:chExt cx="2607129" cy="3956958"/>
         </a:xfrm>
@@ -9672,8 +7507,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7920960" y="16344579"/>
-            <a:ext cx="725179" cy="278547"/>
+            <a:off x="7530671" y="15889555"/>
+            <a:ext cx="725179" cy="278548"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -9735,8 +7570,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7909753" y="15920357"/>
-            <a:ext cx="725179" cy="278547"/>
+            <a:off x="8389251" y="15897022"/>
+            <a:ext cx="725179" cy="278548"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -9785,433 +7620,6 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="261" name="図 260">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A720F2A-7042-4267-A396-9AB75CC0BE43}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="7162160" y="13070861"/>
-            <a:ext cx="295275" cy="257010"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>195943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>234044</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="48" name="グループ化 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA1608F-6D8B-9F70-4CAF-D0ECD3CE7F59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8540750" y="6387193"/>
-          <a:ext cx="2647950" cy="3848101"/>
-          <a:chOff x="7096125" y="8353425"/>
-          <a:chExt cx="2628900" cy="3848101"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="149" name="正方形/長方形 148">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203FEA04-6F5C-4689-B753-C448801FEC9B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7096125" y="8353425"/>
-            <a:ext cx="2628900" cy="3848101"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="150" name="正方形/長方形 149">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A96ACC-A3D0-47EF-907B-6E2AE619E37C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7448549" y="8734424"/>
-            <a:ext cx="1895475" cy="1400175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="151" name="楕円 150">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE6BFDA-DD47-44E7-BEA2-C68ADB2B8C84}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7715250" y="10982324"/>
-            <a:ext cx="361950" cy="342901"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="152" name="テキスト ボックス 151">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252C95BE-F5BD-7560-DF4A-A502E57A2D50}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8029575" y="11010900"/>
-            <a:ext cx="1381125" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>猫の青山</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="153" name="正方形/長方形 152">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D90DA5D-9E3B-478D-BFB9-4B83CACAA5B8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7534275" y="10344148"/>
-            <a:ext cx="1733550" cy="504827"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>日向で寝ているうちの猫</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>#</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ペルシャ猫</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="154" name="テキスト ボックス 153">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16D3850-A08F-44EE-8565-629D92DB648B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7877175" y="8439150"/>
-            <a:ext cx="1381125" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>昼下がりの猫</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="262" name="図 261">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142F5C17-A809-449E-BEDD-C0596EC59219}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="59388" t="24666" r="1836" b="21667"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="7185772" y="8473887"/>
-            <a:ext cx="295275" cy="250207"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -10241,8 +7649,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8506732" y="1687738"/>
-          <a:ext cx="2647950" cy="3848101"/>
+          <a:off x="8422688" y="1668128"/>
+          <a:ext cx="2619935" cy="3803277"/>
           <a:chOff x="7077808" y="4262803"/>
           <a:chExt cx="2640623" cy="3906716"/>
         </a:xfrm>
@@ -11155,8 +8563,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19343461" y="14820899"/>
-          <a:ext cx="2643188" cy="3955411"/>
+          <a:off x="19147358" y="14647208"/>
+          <a:ext cx="2622177" cy="3910587"/>
           <a:chOff x="13128172" y="4004581"/>
           <a:chExt cx="2607128" cy="4061093"/>
         </a:xfrm>
@@ -13215,69 +10623,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="281" name="矢印: 下 280">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7556CBD-DFBC-4962-AFF2-5CABFBD8AB39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17637125" y="5597525"/>
-          <a:ext cx="527050" cy="1466850"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="002060"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -13495,69 +10840,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>94426</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>630465</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="285" name="矢印: 下 284">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD66113A-5B56-49C2-9458-21631D761E64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="789214" y="20913355"/>
-          <a:ext cx="521608" cy="3445699"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="002060"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
       <xdr:row>65</xdr:row>
@@ -13621,14 +10903,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -13645,8 +10927,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="8467044" y="13556117"/>
-          <a:ext cx="537483" cy="4082142"/>
+          <a:off x="8744790" y="13171114"/>
+          <a:ext cx="518272" cy="3641911"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -14244,86 +11526,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295954</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="295" name="四角形: 角を丸くする 294">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B68D30-7178-4CF3-B070-354009235E7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10501311" y="10280196"/>
-          <a:ext cx="710974" cy="455840"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>101</xdr:row>
@@ -14460,86 +11662,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>493259</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>115662</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="298" name="四角形: 角を丸くする 297">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7CD6FB-2CB2-435B-AD61-3A96E05F49CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21553714" y="5538108"/>
-          <a:ext cx="710974" cy="455840"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>②</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14826,6 +11948,3382 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>108324</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>677583</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>211632</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="67" name="グループ化 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240DB435-73F4-5243-483D-8CE4ACF72BFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8311030" y="6291943"/>
+          <a:ext cx="2619935" cy="3803277"/>
+          <a:chOff x="8456706" y="6314355"/>
+          <a:chExt cx="2619935" cy="3803277"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="48" name="グループ化 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA1608F-6D8B-9F70-4CAF-D0ECD3CE7F59}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8456706" y="6314355"/>
+            <a:ext cx="2619935" cy="3803277"/>
+            <a:chOff x="7096125" y="8353425"/>
+            <a:chExt cx="2628900" cy="3848101"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="149" name="正方形/長方形 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203FEA04-6F5C-4689-B753-C448801FEC9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7096125" y="8353425"/>
+              <a:ext cx="2628900" cy="3848101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="150" name="正方形/長方形 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A96ACC-A3D0-47EF-907B-6E2AE619E37C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7448549" y="8734424"/>
+              <a:ext cx="1895475" cy="1400175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="151" name="楕円 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE6BFDA-DD47-44E7-BEA2-C68ADB2B8C84}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7715250" y="10982324"/>
+              <a:ext cx="361950" cy="342901"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="152" name="テキスト ボックス 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252C95BE-F5BD-7560-DF4A-A502E57A2D50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8029575" y="11010900"/>
+              <a:ext cx="1381125" cy="295275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>猫の青山</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="153" name="正方形/長方形 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D90DA5D-9E3B-478D-BFB9-4B83CACAA5B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7534275" y="10344148"/>
+              <a:ext cx="1733550" cy="504827"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>日向で寝ているうちの猫</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>#</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ペルシャ猫</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="154" name="テキスト ボックス 153">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16D3850-A08F-44EE-8565-629D92DB648B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7877175" y="8439150"/>
+              <a:ext cx="1381125" cy="295275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>昼下がりの猫</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="正方形/長方形 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DE58DE-8BC5-E040-D8FE-55E5F6F92264}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9491382" y="9737911"/>
+            <a:ext cx="481853" cy="257735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>戻る</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>351983</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>382600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>226519</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="四角形: 角を丸くする 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B68D30-7178-4CF3-B070-354009235E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10605365" y="9908802"/>
+          <a:ext cx="714176" cy="436629"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>128814</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>14514</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="91" name="グループ化 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25434C4F-21E0-D5C1-C201-933CE3F8BA0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15850667" y="6289862"/>
+          <a:ext cx="2619935" cy="4523814"/>
+          <a:chOff x="15850667" y="6289862"/>
+          <a:chExt cx="2619935" cy="4523814"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="63" name="グループ化 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D47FEF-83CF-F2CA-1E4C-DFDC9EBB4C68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="15850667" y="6289862"/>
+            <a:ext cx="2619935" cy="4523814"/>
+            <a:chOff x="13136336" y="4392386"/>
+            <a:chExt cx="2607128" cy="4702924"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="正方形/長方形 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F42FF2-1A49-40A7-9373-093F6B1F61DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13136336" y="4392386"/>
+              <a:ext cx="2607128" cy="4702924"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85" name="テキスト ボックス 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE73C6E1-7F8B-4237-A546-D9A3BBF974E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13355411" y="4834618"/>
+              <a:ext cx="2107746" cy="432707"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+                <a:t>新規掲示板</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="97" name="正方形/長方形 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8420C100-7D26-4BA6-80C1-C64D2E593E2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13517336" y="5426529"/>
+              <a:ext cx="1926771" cy="359228"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>タイトル</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="98" name="正方形/長方形 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E2BF6E-1813-4C66-981B-21E824C618DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13517336" y="6011636"/>
+              <a:ext cx="1926771" cy="1148443"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>投稿内容</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="99" name="正方形/長方形 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4401CE71-9E31-426E-8CFF-8A0F4DF39A9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13979738" y="7802897"/>
+              <a:ext cx="966107" cy="356507"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>投稿</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="101" name="正方形/長方形 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A721850-0235-498A-AD8D-CE9A339B2C57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13545911" y="7245804"/>
+              <a:ext cx="1926771" cy="366032"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>猫〇　　　　犬〇</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="303" name="正方形/長方形 302">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C8EB7A-2F2F-4F81-A212-E00D394DEC06}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16831236" y="10346392"/>
+            <a:ext cx="689108" cy="254373"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>やめる</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>514537</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>355787</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="矢印: 下 280">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7556CBD-DFBC-4962-AFF2-5CABFBD8AB39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17603508" y="5203078"/>
+          <a:ext cx="524808" cy="1392891"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>257630</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>198333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>143329</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="102" name="グループ化 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6557AD5-2E62-0DE8-0095-EDA3C25026E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="19397277" y="1610274"/>
+          <a:ext cx="2619934" cy="4440902"/>
+          <a:chOff x="19397277" y="1610274"/>
+          <a:chExt cx="2619934" cy="4440902"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="77" name="グループ化 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56EF339-6FE2-194C-63CC-273BA12B60BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="19397277" y="1610274"/>
+            <a:ext cx="2619934" cy="4440902"/>
+            <a:chOff x="13117286" y="14816940"/>
+            <a:chExt cx="2607128" cy="4620144"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="201" name="正方形/長方形 200">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B625E9-A8D9-481B-B5C0-948109155CE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13117286" y="14816940"/>
+              <a:ext cx="2607128" cy="4620144"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="207" name="テキスト ボックス 206">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84951016-8AC0-4DA5-A4EF-BC6D6E2A5599}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13394377" y="15113825"/>
+              <a:ext cx="2107746" cy="432707"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+                <a:t>掲示板</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="212" name="正方形/長方形 211">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C32C76-239C-4B9F-BD58-78B833F9A54C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13515604" y="15972312"/>
+              <a:ext cx="1926771" cy="359229"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>タイトル</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="213" name="正方形/長方形 212">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D064F4-A392-48F9-8CBC-8463EA208334}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13498285" y="16444849"/>
+              <a:ext cx="1926771" cy="1145970"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>投稿内容</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="216" name="テキスト ボックス 215">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC56EDE-9D39-4338-9BFE-A1F441A9DCAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13377059" y="15482454"/>
+              <a:ext cx="2107745" cy="430233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+                <a:t>猫の青山</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="217" name="楕円 216">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4802BA-F1D1-4695-8C46-217F431F5FB8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13515606" y="15517090"/>
+              <a:ext cx="403266" cy="366157"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="テキスト ボックス 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016D5259-A0AC-8BD0-3407-086D8ECE2885}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13539890" y="17750511"/>
+              <a:ext cx="1811156" cy="326344"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>コメント</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="テキスト ボックス 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAB41EB-542B-726A-7F91-EC8909EC7F95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14922499" y="18277990"/>
+              <a:ext cx="494237" cy="299670"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>送信</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6588F2AE-6F55-665F-97F9-E455FB9478BD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13583683" y="18245145"/>
+              <a:ext cx="1865899" cy="380374"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="フリーフォーム: 図形 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09AA606-3AB2-1531-B2A0-4579A24A76FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15164926" y="17353016"/>
+              <a:ext cx="218965" cy="201136"/>
+            </a:xfrm>
+            <a:custGeom>
+              <a:avLst/>
+              <a:gdLst>
+                <a:gd name="connsiteX0" fmla="*/ 0 w 492672"/>
+                <a:gd name="connsiteY0" fmla="*/ 0 h 503621"/>
+                <a:gd name="connsiteX1" fmla="*/ 492672 w 492672"/>
+                <a:gd name="connsiteY1" fmla="*/ 0 h 503621"/>
+                <a:gd name="connsiteX2" fmla="*/ 481724 w 492672"/>
+                <a:gd name="connsiteY2" fmla="*/ 503621 h 503621"/>
+                <a:gd name="connsiteX3" fmla="*/ 284655 w 492672"/>
+                <a:gd name="connsiteY3" fmla="*/ 339397 h 503621"/>
+                <a:gd name="connsiteX4" fmla="*/ 43793 w 492672"/>
+                <a:gd name="connsiteY4" fmla="*/ 492673 h 503621"/>
+                <a:gd name="connsiteX5" fmla="*/ 0 w 492672"/>
+                <a:gd name="connsiteY5" fmla="*/ 0 h 503621"/>
+              </a:gdLst>
+              <a:ahLst/>
+              <a:cxnLst>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX0" y="connsiteY0"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX1" y="connsiteY1"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX2" y="connsiteY2"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX3" y="connsiteY3"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX4" y="connsiteY4"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX5" y="connsiteY5"/>
+                </a:cxn>
+              </a:cxnLst>
+              <a:rect l="l" t="t" r="r" b="b"/>
+              <a:pathLst>
+                <a:path w="492672" h="503621">
+                  <a:moveTo>
+                    <a:pt x="0" y="0"/>
+                  </a:moveTo>
+                  <a:lnTo>
+                    <a:pt x="492672" y="0"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="481724" y="503621"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="284655" y="339397"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="43793" y="492673"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="0" y="0"/>
+                  </a:lnTo>
+                  <a:close/>
+                </a:path>
+              </a:pathLst>
+            </a:custGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="304" name="正方形/長方形 303">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA1D48B-9BE7-4761-AB4E-753ADEE72CC4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20450734" y="5670176"/>
+            <a:ext cx="481853" cy="257735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>戻る</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>493259</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="298" name="四角形: 角を丸くする 297">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7CD6FB-2CB2-435B-AD61-3A96E05F49CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21553714" y="5538108"/>
+          <a:ext cx="710974" cy="455840"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2801</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>194345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571126</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>220902</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="129" name="グループ化 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276621A9-76CE-B7F6-4ED4-FF4FF2749337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="686360" y="23256051"/>
+          <a:ext cx="2619001" cy="3791733"/>
+          <a:chOff x="19026868" y="8572500"/>
+          <a:chExt cx="2607128" cy="3956958"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="173" name="正方形/長方形 172">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E127AD9-7F6B-44FA-9081-7D8575972C69}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19026868" y="8572500"/>
+            <a:ext cx="2607128" cy="3956958"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="183" name="楕円 182">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EBB8CB-E2FD-4365-B26A-845288FCA3F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19735703" y="8931729"/>
+            <a:ext cx="518432" cy="547007"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="テキスト ボックス 183">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817547CB-E9C0-4AE5-A245-C4F26BB8EBEB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20072656" y="8979353"/>
+            <a:ext cx="1447040" cy="432707"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>猫の青山</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="185" name="吹き出し: 角を丸めた四角形 184">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497C3A11-08AB-3ABF-17CE-0001B81596A8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19183350" y="9835243"/>
+            <a:ext cx="1417864" cy="330653"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -58833"/>
+              <a:gd name="adj2" fmla="val -46324"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="186" name="吹き出し: 角を丸めた四角形 185">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5033DECE-9888-4FD9-8A1B-A19B51B2E376}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20111357" y="10382250"/>
+            <a:ext cx="1417864" cy="330654"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 54500"/>
+              <a:gd name="adj2" fmla="val -43383"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="187" name="吹き出し: 角を丸めた四角形 186">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807F5F34-B72E-446E-9D48-B2AB6504F883}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19202400" y="10834007"/>
+            <a:ext cx="1417864" cy="330654"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -58833"/>
+              <a:gd name="adj2" fmla="val -46324"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="188" name="正方形/長方形 187">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68C0702-4045-E82A-D8E5-312A8F56077F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19326225" y="12096750"/>
+            <a:ext cx="2174421" cy="292554"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>メッセージを書く</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>177558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>212914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="306" name="正方形/長方形 305">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A182A8D6-72F9-44A5-8182-AA3AB72636D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="17356176"/>
+          <a:ext cx="672353" cy="270679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>やめる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466272</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471714</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>210913</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="126" name="グループ化 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F445DD59-CF42-0F9C-21C6-F487F7DE25BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6618301" y="19930463"/>
+          <a:ext cx="2739678" cy="3812803"/>
+          <a:chOff x="6618301" y="19930463"/>
+          <a:chExt cx="2739678" cy="3812803"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="130" name="グループ化 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F044DA33-C043-B7DE-AA15-9D9A22001084}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6618301" y="19930463"/>
+            <a:ext cx="2739678" cy="3812803"/>
+            <a:chOff x="21847629" y="4408714"/>
+            <a:chExt cx="2726871" cy="3966483"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="189" name="正方形/長方形 188">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549A99E4-E1A3-468D-B860-D0C41D54DC28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21847629" y="4408714"/>
+              <a:ext cx="2726871" cy="3966483"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="190" name="正方形/長方形 189">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8D366D-91E7-4CC7-9C3D-34A2F3B67136}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22526763" y="4606606"/>
+              <a:ext cx="1926771" cy="630011"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>コスパいいおやつ</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>決定戦</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="192" name="吹き出し: 角を丸めた四角形 191">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DAA340-5BAA-4CEC-BC5D-D067A55DD328}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22019079" y="5719082"/>
+              <a:ext cx="1417864" cy="330654"/>
+            </a:xfrm>
+            <a:prstGeom prst="wedgeRoundRectCallout">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -58833"/>
+                <a:gd name="adj2" fmla="val -46324"/>
+                <a:gd name="adj3" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="193" name="吹き出し: 角を丸めた四角形 192">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7172239C-419A-4C41-A421-F9D239188DD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22019079" y="6151789"/>
+              <a:ext cx="1417864" cy="330654"/>
+            </a:xfrm>
+            <a:prstGeom prst="wedgeRoundRectCallout">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -58833"/>
+                <a:gd name="adj2" fmla="val -46324"/>
+                <a:gd name="adj3" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="194" name="吹き出し: 角を丸めた四角形 193">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA003FB-95A4-427C-91A6-81B5FF54B5E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22009554" y="6596743"/>
+              <a:ext cx="1417864" cy="337457"/>
+            </a:xfrm>
+            <a:prstGeom prst="wedgeRoundRectCallout">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -58833"/>
+                <a:gd name="adj2" fmla="val -46324"/>
+                <a:gd name="adj3" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="196" name="吹き出し: 角を丸めた四角形 195">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDFF31D-7D95-4972-9D82-BEB521DDC442}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21980979" y="7576457"/>
+              <a:ext cx="1417864" cy="337457"/>
+            </a:xfrm>
+            <a:prstGeom prst="wedgeRoundRectCallout">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -58833"/>
+                <a:gd name="adj2" fmla="val -46324"/>
+                <a:gd name="adj3" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="197" name="吹き出し: 角を丸めた四角形 196">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7D7C4C-3E2D-427A-984E-64504F428872}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22851836" y="7121979"/>
+              <a:ext cx="1417864" cy="330653"/>
+            </a:xfrm>
+            <a:prstGeom prst="wedgeRoundRectCallout">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 61834"/>
+                <a:gd name="adj2" fmla="val -43383"/>
+                <a:gd name="adj3" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="198" name="正方形/長方形 197">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889021AC-E449-4763-9EF5-FEDA8F948AE3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22161954" y="7999639"/>
+              <a:ext cx="2174421" cy="292554"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>メッセージを書く</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="310" name="正方形/長方形 309">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275CB2FE-60E3-4071-A94D-E9445666B6E5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6707949" y="20210610"/>
+            <a:ext cx="284522" cy="240125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>←</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>182309</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>62404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>164601</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>68811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="正方形/長方形 311">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03B45C9-6958-4722-B690-FC533173D525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23423309" y="22888786"/>
+          <a:ext cx="1349410" cy="241731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページに戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>622111</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>9340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>604403</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>15747</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="正方形/長方形 312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2B4672-05DF-4436-B249-BD8692963D09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19761758" y="22835722"/>
+          <a:ext cx="1349410" cy="241731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページに戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>333695</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>222514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>315988</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>228922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="314" name="正方形/長方形 313">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C93A46F3-AB93-49E5-86B4-8605A0E30536}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16739107" y="22813573"/>
+          <a:ext cx="1349410" cy="241731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページに戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>174919</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>196904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="315" name="正方形/長方形 314">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE11C1B-A676-48A9-9EA0-CE74C9239135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="858478" y="23729257"/>
+          <a:ext cx="284522" cy="240125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>←</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>94426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>630465</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="285" name="矢印: 下 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD66113A-5B56-49C2-9458-21631D761E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="789214" y="20913355"/>
+          <a:ext cx="521608" cy="3445699"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>218153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25505</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="316" name="正方形/長方形 315">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47224ABE-981F-4431-8FE6-4A43A798F6E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1568824" y="21867918"/>
+          <a:ext cx="507357" cy="241288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>97063</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>221182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604420</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>227146</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="正方形/長方形 317">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D570F595-F895-479D-AFA4-209F90F836CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5565534" y="18105770"/>
+          <a:ext cx="507357" cy="241288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>578462</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>68472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>418779</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>12440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="319" name="矢印: 下 318">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F82B51A-800C-4F64-9251-B63C9E2E28D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2110222">
+          <a:off x="10148286" y="16305796"/>
+          <a:ext cx="523875" cy="3944468"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243335</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>195652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83651</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>3270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="矢印: 下 319">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC065312-81EC-4381-901A-B081822D03FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1447474">
+          <a:off x="3661129" y="20904123"/>
+          <a:ext cx="523875" cy="3102147"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15133,8 +15631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5E51A8-215E-4621-9D1C-44763CD43360}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W89" sqref="W89"/>
+    <sheetView tabSelected="1" topLeftCell="V61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
